--- a/documentation/naviguerSurLeSite.xlsx
+++ b/documentation/naviguerSurLeSite.xlsx
@@ -644,7 +644,7 @@
   <dimension ref="A1:C208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
